--- a/me-docs/infra/4.Amazon SES/4.Amazon SES.xlsx
+++ b/me-docs/infra/4.Amazon SES/4.Amazon SES.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\proj_news\me-docs\infra\4.Amazon SES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\quang\proj_news\me-docs\infra\4.Amazon SES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47A3BF03-F6AD-46D1-B7F2-1D8806DAB232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C476EACA-CDBE-4E13-B943-D0B74E1C85B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Create identity" sheetId="5" r:id="rId1"/>
@@ -18,8 +18,8 @@
     <sheet name="check can not send mail" sheetId="7" r:id="rId3"/>
     <sheet name="Register email " sheetId="9" r:id="rId4"/>
     <sheet name="SES SMTP send by php" sheetId="10" r:id="rId5"/>
-    <sheet name="request for production access" sheetId="11" r:id="rId6"/>
-    <sheet name="Increasing sending quotas" sheetId="12" r:id="rId7"/>
+    <sheet name="Increasing sending quotas" sheetId="12" r:id="rId6"/>
+    <sheet name="request for production access" sheetId="11" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -85,7 +85,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -95,7 +95,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -107,7 +107,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -117,7 +117,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -129,7 +129,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -139,7 +139,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -421,19 +421,26 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -470,7 +477,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2540,109 +2547,109 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>522667</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>66000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F1ABED2-3B17-2504-C911-A1902EEFB31B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="381000"/>
+          <a:ext cx="9666667" cy="5400000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>104017</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F5CE26A-1A9E-4C3A-70E0-A9CDDF1FB20B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="190500"/>
-          <a:ext cx="10848975" cy="3723517"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:colOff>246324</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>104286</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B3003F6-69EE-10F1-19CA-7C1C197773BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="6096000"/>
+          <a:ext cx="10609524" cy="3914286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>436800</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>104238</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{234D7667-BF50-51B3-6A10-115506F0FFF5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="4191000"/>
-          <a:ext cx="10800000" cy="4295238"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>75200</xdr:colOff>
+      <xdr:colOff>342901</xdr:colOff>
       <xdr:row>70</xdr:row>
-      <xdr:rowOff>161333</xdr:rowOff>
+      <xdr:rowOff>165025</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5006436D-1B64-385F-D1FC-331D35D57E42}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D745EAD-B118-7CC2-993B-E70207C0C49C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2658,8 +2665,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609600" y="8763000"/>
-          <a:ext cx="8000000" cy="4733333"/>
+          <a:off x="609601" y="10477500"/>
+          <a:ext cx="10706100" cy="3022525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2676,17 +2683,17 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>151390</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>190214</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>325455</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{802C7F22-4F0D-A27E-D6F7-302672E9807B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF271F1D-1295-F185-8F0E-2644D775800D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2703,227 +2710,271 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="609600" y="13716000"/>
-          <a:ext cx="8076190" cy="2285714"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>85</xdr:row>
+          <a:ext cx="10688655" cy="4448175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>589562</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>85048</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01D7079D-CF65-1297-DC02-FB716C9ECBE4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="18288000"/>
+          <a:ext cx="7904762" cy="5419048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>125</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>108</xdr:row>
-      <xdr:rowOff>182479</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F3437B3-0555-4D5D-199B-96C9CCD13872}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="16192500"/>
-          <a:ext cx="10839450" cy="4563979"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>110</xdr:row>
+      <xdr:colOff>342901</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>23572</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB77CC3B-928E-5170-4670-327B9A8387CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609601" y="23812500"/>
+          <a:ext cx="10706100" cy="4405072"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>323851</xdr:colOff>
+      <xdr:row>166</xdr:row>
+      <xdr:rowOff>139314</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC5CCAB6-FCD7-347B-1DAA-D6C2E2B439F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609601" y="28765500"/>
+          <a:ext cx="10687050" cy="2996814"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>302946</xdr:colOff>
+      <xdr:row>190</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E18E03D3-DDBD-707B-833C-7ABA6F8649B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="32004001"/>
+          <a:ext cx="10666146" cy="4333874"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>192</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>8609</xdr:colOff>
-      <xdr:row>132</xdr:row>
-      <xdr:rowOff>113762</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD210D91-EA98-07D3-7F5D-B025A0567BA1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="20955000"/>
-          <a:ext cx="7323809" cy="4304762"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>134</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>170209</xdr:colOff>
-      <xdr:row>148</xdr:row>
-      <xdr:rowOff>104429</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{093D0018-9EA1-1317-01AE-F8BD0BD2E05E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="25527000"/>
-          <a:ext cx="9923809" cy="2771429"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>609599</xdr:colOff>
-      <xdr:row>150</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>390524</xdr:colOff>
-      <xdr:row>173</xdr:row>
-      <xdr:rowOff>28361</xdr:rowOff>
+      <xdr:colOff>541943</xdr:colOff>
+      <xdr:row>220</xdr:row>
+      <xdr:rowOff>56476</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="10" name="Picture 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F030A456-A695-AA96-5A8B-C168750C7351}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609599" y="28575000"/>
-          <a:ext cx="10753725" cy="4409861"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>174</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>190</xdr:row>
-      <xdr:rowOff>35236</xdr:rowOff>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{948291AA-BEE9-1AD8-7466-94063E019E73}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="36576000"/>
+          <a:ext cx="7857143" cy="5390476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>221</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>126999</xdr:colOff>
+      <xdr:row>245</xdr:row>
+      <xdr:rowOff>37100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="11" name="Picture 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{148900AE-7EC9-9E72-3C71-2185619E159A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="33147000"/>
-          <a:ext cx="10753725" cy="3083236"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E67BCFEC-734E-31DD-AB72-210D8A57F674}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="660400" y="50520600"/>
+          <a:ext cx="12014199" cy="5523500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2941,21 +2992,21 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>522667</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>66000</xdr:rowOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>104017</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F1ABED2-3B17-2504-C911-A1902EEFB31B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F5CE26A-1A9E-4C3A-70E0-A9CDDF1FB20B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2971,35 +3022,35 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609600" y="381000"/>
-          <a:ext cx="9666667" cy="5400000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
+          <a:off x="609600" y="190500"/>
+          <a:ext cx="10848975" cy="3723517"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>246324</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>104286</xdr:rowOff>
+      <xdr:colOff>436800</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>104238</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B3003F6-69EE-10F1-19CA-7C1C197773BE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{234D7667-BF50-51B3-6A10-115506F0FFF5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3015,299 +3066,299 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609600" y="6096000"/>
-          <a:ext cx="10609524" cy="3914286"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>55</xdr:row>
+          <a:off x="609600" y="4191000"/>
+          <a:ext cx="10800000" cy="4295238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>75200</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>161333</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5006436D-1B64-385F-D1FC-331D35D57E42}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="8763000"/>
+          <a:ext cx="8000000" cy="4733333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>151390</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>190214</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{802C7F22-4F0D-A27E-D6F7-302672E9807B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="13716000"/>
+          <a:ext cx="8076190" cy="2285714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>342901</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>165025</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D745EAD-B118-7CC2-993B-E70207C0C49C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609601" y="10477500"/>
-          <a:ext cx="10706100" cy="3022525"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>182479</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F3437B3-0555-4D5D-199B-96C9CCD13872}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="16192500"/>
+          <a:ext cx="10839450" cy="4563979"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>8609</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>113762</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD210D91-EA98-07D3-7F5D-B025A0567BA1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="20955000"/>
+          <a:ext cx="7323809" cy="4304762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>170209</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>104429</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{093D0018-9EA1-1317-01AE-F8BD0BD2E05E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="25527000"/>
+          <a:ext cx="9923809" cy="2771429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>150</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>325455</xdr:colOff>
-      <xdr:row>95</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF271F1D-1295-F185-8F0E-2644D775800D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="13716000"/>
-          <a:ext cx="10688655" cy="4448175"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>96</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>589562</xdr:colOff>
-      <xdr:row>124</xdr:row>
-      <xdr:rowOff>85048</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01D7079D-CF65-1297-DC02-FB716C9ECBE4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="18288000"/>
-          <a:ext cx="7904762" cy="5419048"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>125</xdr:row>
+      <xdr:colOff>390524</xdr:colOff>
+      <xdr:row>173</xdr:row>
+      <xdr:rowOff>28361</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F030A456-A695-AA96-5A8B-C168750C7351}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609599" y="28575000"/>
+          <a:ext cx="10753725" cy="4409861"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>174</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>342901</xdr:colOff>
-      <xdr:row>148</xdr:row>
-      <xdr:rowOff>23572</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB77CC3B-928E-5170-4670-327B9A8387CF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609601" y="23812500"/>
-          <a:ext cx="10706100" cy="4405072"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>151</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>323851</xdr:colOff>
-      <xdr:row>166</xdr:row>
-      <xdr:rowOff>139314</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC5CCAB6-FCD7-347B-1DAA-D6C2E2B439F9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609601" y="28765500"/>
-          <a:ext cx="10687050" cy="2996814"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>168</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>302946</xdr:colOff>
+      <xdr:colOff>390525</xdr:colOff>
       <xdr:row>190</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E18E03D3-DDBD-707B-833C-7ABA6F8649B1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="32004001"/>
-          <a:ext cx="10666146" cy="4333874"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>192</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>541943</xdr:colOff>
-      <xdr:row>220</xdr:row>
-      <xdr:rowOff>56476</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Picture 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{948291AA-BEE9-1AD8-7466-94063E019E73}"/>
+      <xdr:rowOff>35236</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{148900AE-7EC9-9E72-3C71-2185619E159A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3323,52 +3374,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609600" y="36576000"/>
-          <a:ext cx="7857143" cy="5390476"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>221</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>244</xdr:row>
-      <xdr:rowOff>100754</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Picture 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E67BCFEC-734E-31DD-AB72-210D8A57F674}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="42100500"/>
-          <a:ext cx="10791825" cy="4482254"/>
+          <a:off x="609600" y="33147000"/>
+          <a:ext cx="10753725" cy="3083236"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3649,17 +3656,17 @@
       <selection activeCell="C168" sqref="C168"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="3" max="3" width="65.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="65.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="161" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B161" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="162" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B162" t="s">
         <v>0</v>
       </c>
@@ -3670,7 +3677,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="163" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B163" t="s">
         <v>3</v>
       </c>
@@ -3681,7 +3688,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="164" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B164" t="s">
         <v>3</v>
       </c>
@@ -3692,7 +3699,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="165" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B165" t="s">
         <v>3</v>
       </c>
@@ -3704,6 +3711,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -3714,21 +3722,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{850FDFC4-C64C-41CB-82F5-BA183C674198}">
   <dimension ref="A14:D191"/>
   <sheetViews>
-    <sheetView topLeftCell="A190" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="B207" sqref="B207"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="3" max="3" width="65.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="65.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" t="s">
         <v>0</v>
       </c>
@@ -3739,7 +3747,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -3753,7 +3761,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -3767,7 +3775,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -3781,27 +3789,28 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -3815,14 +3824,15 @@
       <selection activeCell="H115" sqref="H115"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -3832,28 +3842,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00EF4D55-EB08-4D55-A095-0FB36295B9CF}">
   <dimension ref="A48:B114"/>
   <sheetViews>
-    <sheetView topLeftCell="A181" workbookViewId="0">
+    <sheetView topLeftCell="A226" workbookViewId="0">
       <selection activeCell="A241" sqref="A241"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B96" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" t="s">
         <v>21</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -3863,23 +3874,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BF7DFFF-167C-4FBD-874E-8EB9D2E959BC}">
   <dimension ref="A71:D413"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A330" workbookViewId="0">
+    <sheetView topLeftCell="A261" workbookViewId="0">
       <selection activeCell="I341" sqref="I341"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.4140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="52" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B71" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B72" s="1" t="s">
         <v>23</v>
       </c>
@@ -3890,7 +3901,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B73" t="s">
         <v>26</v>
       </c>
@@ -3901,464 +3912,470 @@
         <v>28</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B179" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B180" s="2"/>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B181" s="2"/>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B182" s="2"/>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B183" s="2"/>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B184" s="2"/>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B185" s="2"/>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B186" s="2"/>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B188" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B189" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="197" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B197" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="227" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B227" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="264" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B264" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="265" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B265" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="267" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B267" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="268" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B268" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="269" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B269" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="270" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="270" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B270" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="272" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="272" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B272" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="273" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="273" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B273" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="274" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="274" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B274" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="276" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="276" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B276" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="277" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="277" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B277" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="278" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="278" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B278" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="279" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="279" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B279" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="281" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="281" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B281" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="282" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="282" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B282" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="283" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="283" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B283" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="285" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="285" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B285" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="286" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="286" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B286" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="288" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="288" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B288" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="289" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="289" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B289" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="291" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="291" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B291" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="292" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="292" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B292" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="293" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="293" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B293" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="295" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="295" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B295" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="296" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="296" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B296" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="297" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="297" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B297" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="298" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="298" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B298" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="299" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="299" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B299" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="301" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="301" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B301" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="302" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="302" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B302" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="304" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="304" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B304" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="305" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="305" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B305" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="306" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="306" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B306" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="308" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="308" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B308" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="309" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="309" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B309" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="310" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="310" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B310" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="311" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="311" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B311" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="312" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="312" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B312" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="313" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="313" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B313" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="315" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="315" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B315" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="317" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="317" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B317" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="318" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="318" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B318" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="319" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="319" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B319" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="320" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="320" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B320" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="321" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="321" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B321" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="322" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="322" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B322" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="323" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="323" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B323" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="324" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="324" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B324" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="325" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="325" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B325" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="326" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="326" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B326" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="327" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="327" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B327" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="329" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="329" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B329" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="330" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="330" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B330" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="331" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="331" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B331" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="333" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="333" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B333" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="334" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="334" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B334" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="335" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="335" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B335" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="336" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="336" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B336" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B337" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B338" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B339" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B340" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B341" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B342" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B343" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B344" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B346" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A348" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A375" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B376" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="413" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="413" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B413" t="s">
         <v>104</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4508422A-1AF5-44BB-80C2-39A59779A4E5}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63302499-0B15-4FB8-A6C2-7E180F40F9F6}">
+  <dimension ref="A2:B248"/>
   <sheetViews>
-    <sheetView topLeftCell="A163" workbookViewId="0">
-      <selection activeCell="C193" sqref="C193"/>
+    <sheetView tabSelected="1" topLeftCell="A136" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A151" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="248" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B248" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63302499-0B15-4FB8-A6C2-7E180F40F9F6}">
-  <dimension ref="A2:A151"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4508422A-1AF5-44BB-80C2-39A59779A4E5}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B247" sqref="B247"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="C193" sqref="C193"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>107</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData/>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
